--- a/properties/APIKeyMapping.xlsx
+++ b/properties/APIKeyMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuryadeviAngappan\git\Automation_CJPFlow\Project_01\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03348BF9-1286-4789-A7EF-EE2DABA10741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BD90F-2490-43E8-B168-438B351ADC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C65AD2D2-D812-46FE-8888-EBF1CDCFD7EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="462">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1348,13 +1348,85 @@
   </si>
   <si>
     <t>hardcode_Value</t>
+  </si>
+  <si>
+    <t>data.partner_type</t>
+  </si>
+  <si>
+    <t>select partner_type from flexiloans_staging_db.partner;</t>
+  </si>
+  <si>
+    <t>partner_type</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>data.other_charges</t>
+  </si>
+  <si>
+    <t>other_charges</t>
+  </si>
+  <si>
+    <t>message[0].data.sanctionInformation.crossSellingProducts[0].totalAmount</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>data.company_details.eligibility_net_disposable_income</t>
+  </si>
+  <si>
+    <t>overview.netDisposal</t>
+  </si>
+  <si>
+    <t>eligibility_net_disposable_income</t>
+  </si>
+  <si>
+    <t>netDisposal</t>
+  </si>
+  <si>
+    <t>overview.annularisedCredits</t>
+  </si>
+  <si>
+    <t>annularisedCredits</t>
+  </si>
+  <si>
+    <t>data.company_details: eligibility_annularised_credits</t>
+  </si>
+  <si>
+    <t>eligibility_annularised_credits</t>
+  </si>
+  <si>
+    <t>data.company_details: median_transaction_count</t>
+  </si>
+  <si>
+    <t>credits.creditImplyingSaleValues</t>
+  </si>
+  <si>
+    <t>creditImplyingSaleValues</t>
+  </si>
+  <si>
+    <t>median_transaction_count</t>
+  </si>
+  <si>
+    <t>data.company_details: emi_bounces</t>
+  </si>
+  <si>
+    <t>emi_bounces</t>
+  </si>
+  <si>
+    <t>emibounce</t>
+  </si>
+  <si>
+    <t>credits.emibounce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,6 +1447,12 @@
       <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1418,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1428,6 +1506,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1742,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1D41ED-30A5-49ED-8C33-3909156F026B}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3538,6 +3617,104 @@
         <v>428</v>
       </c>
     </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/properties/APIKeyMapping.xlsx
+++ b/properties/APIKeyMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuryadeviAngappan\git\Automation_CJPFlow\Project_01\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BD90F-2490-43E8-B168-438B351ADC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DFD59D-1215-4E5E-A405-7CCE86B325B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C65AD2D2-D812-46FE-8888-EBF1CDCFD7EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="476">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -672,39 +672,12 @@
     <t>data.company_details: eligibility_banking_bto</t>
   </si>
   <si>
-    <t>data.company_details: eligibility_pos_based_sales</t>
-  </si>
-  <si>
-    <t>data.company_details: total_monthly_emi_obligations</t>
-  </si>
-  <si>
-    <t>data.company_details: industry_margin_calculation</t>
-  </si>
-  <si>
-    <t>data.company_details: net_income_calculation</t>
-  </si>
-  <si>
-    <t>data.company_details: net_calculation_disposable_income</t>
-  </si>
-  <si>
-    <t>data.company_details: rate_of_interest_calculation</t>
-  </si>
-  <si>
-    <t>data.company_details: banking_bto_eligibility</t>
-  </si>
-  <si>
     <t>select banking_eligibility from flexiloans_staging_db.em_loan_eligibility_log</t>
   </si>
   <si>
-    <t>data.company_details: proposed_serviceable_emi_calculation</t>
-  </si>
-  <si>
     <t>select abb_serviceable_emi from flexiloans_staging_db.em_loan_eligibility_log</t>
   </si>
   <si>
-    <t>data.company_details: ecom_based_sales</t>
-  </si>
-  <si>
     <t>select ecom_multiplier_median_sales from flexiloans_staging_db.em_loan_eligibility_log</t>
   </si>
   <si>
@@ -720,21 +693,6 @@
     <t>message[0].data.bankDetails.bankDetail[0].bankId</t>
   </si>
   <si>
-    <t>data.applicant_detail: banking_details: account_type</t>
-  </si>
-  <si>
-    <t>data.applicant_detail: banking_details: ifsc_code</t>
-  </si>
-  <si>
-    <t>data.applicant_detail: banking_details: account_name</t>
-  </si>
-  <si>
-    <t>data.applicant_detail: banking_details: account_no</t>
-  </si>
-  <si>
-    <t>data.applicant_detail: banking_details: is_primary_account</t>
-  </si>
-  <si>
     <t>message[0].data.bankDetails.bankDetail[0].accType</t>
   </si>
   <si>
@@ -750,21 +708,12 @@
     <t>message[0].data.bankDetails.bankDetail[0].isPrimary</t>
   </si>
   <si>
-    <t>data.company_details: business_industry_margin</t>
-  </si>
-  <si>
     <t>message[0].data.business.industryListDetails[0].margin</t>
   </si>
   <si>
-    <t>data.company_details: selling_product</t>
-  </si>
-  <si>
     <t>message[0].data.business.sellingProduct</t>
   </si>
   <si>
-    <t>data.company_details: customer_declared_montly_bto</t>
-  </si>
-  <si>
     <t>message[0].data.financeDetails.customerDeclared</t>
   </si>
   <si>
@@ -1392,15 +1341,9 @@
     <t>annularisedCredits</t>
   </si>
   <si>
-    <t>data.company_details: eligibility_annularised_credits</t>
-  </si>
-  <si>
     <t>eligibility_annularised_credits</t>
   </si>
   <si>
-    <t>data.company_details: median_transaction_count</t>
-  </si>
-  <si>
     <t>credits.creditImplyingSaleValues</t>
   </si>
   <si>
@@ -1410,9 +1353,6 @@
     <t>median_transaction_count</t>
   </si>
   <si>
-    <t>data.company_details: emi_bounces</t>
-  </si>
-  <si>
     <t>emi_bounces</t>
   </si>
   <si>
@@ -1420,6 +1360,108 @@
   </si>
   <si>
     <t>credits.emibounce</t>
+  </si>
+  <si>
+    <t>abbData[0].abb_median</t>
+  </si>
+  <si>
+    <t>abb_median</t>
+  </si>
+  <si>
+    <t>eligibility_median_monthly_balance</t>
+  </si>
+  <si>
+    <t>abbData[0].loan_tenure</t>
+  </si>
+  <si>
+    <t>loan_tenure</t>
+  </si>
+  <si>
+    <t>eligibility_abb_tenure</t>
+  </si>
+  <si>
+    <t>median_of_monthly_balance</t>
+  </si>
+  <si>
+    <t>abbData[0].loan_interest_pa</t>
+  </si>
+  <si>
+    <t>loan_interest_pa</t>
+  </si>
+  <si>
+    <t>roi_calculation</t>
+  </si>
+  <si>
+    <t>data.company_details.roi_calculation</t>
+  </si>
+  <si>
+    <t>data.company_details.median_of_monthly_balance</t>
+  </si>
+  <si>
+    <t>data.company_details.eligibility_abb_tenure</t>
+  </si>
+  <si>
+    <t>data.company_details.eligibility_median_monthly_balance</t>
+  </si>
+  <si>
+    <t>data.company_details.emi_bounces</t>
+  </si>
+  <si>
+    <t>data.company_details.median_transaction_count</t>
+  </si>
+  <si>
+    <t>data.company_details.eligibility_annularised_credits</t>
+  </si>
+  <si>
+    <t>data.company_details.customer_declared_montly_bto</t>
+  </si>
+  <si>
+    <t>data.company_details.business_industry_margin</t>
+  </si>
+  <si>
+    <t>data.applicant_detail.banking_details: is_primary_account</t>
+  </si>
+  <si>
+    <t>data.applicant_detail.banking_details: account_no</t>
+  </si>
+  <si>
+    <t>data.applicant_detail.banking_details: account_name</t>
+  </si>
+  <si>
+    <t>data.applicant_detail.banking_details: ifsc_code</t>
+  </si>
+  <si>
+    <t>data.applicant_detail.banking_details: account_type</t>
+  </si>
+  <si>
+    <t>data.company_details.ecom_based_sales</t>
+  </si>
+  <si>
+    <t>data.company_details.proposed_serviceable_emi_calculation</t>
+  </si>
+  <si>
+    <t>data.company_details.banking_bto_eligibility</t>
+  </si>
+  <si>
+    <t>data.company_details.rate_of_interest_calculation</t>
+  </si>
+  <si>
+    <t>data.company_details.net_calculation_disposable_income</t>
+  </si>
+  <si>
+    <t>data.company_details.net_income_calculation</t>
+  </si>
+  <si>
+    <t>data.company_details.industry_margin_calculation</t>
+  </si>
+  <si>
+    <t>data.company_details.selling_product</t>
+  </si>
+  <si>
+    <t>data.company_details.total_monthly_emi_obligations</t>
+  </si>
+  <si>
+    <t>data.company_details.eligibility_pos_based_sales</t>
   </si>
 </sst>
 </file>
@@ -1821,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1D41ED-30A5-49ED-8C33-3909156F026B}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1838,10 +1880,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1858,10 +1900,10 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1872,10 +1914,10 @@
         <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1886,10 +1928,10 @@
         <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1900,10 +1942,10 @@
         <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,10 +1956,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,10 +1970,10 @@
         <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1942,10 +1984,10 @@
         <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1956,10 +1998,10 @@
         <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1970,10 +2012,10 @@
         <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1984,10 +2026,10 @@
         <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1998,10 +2040,10 @@
         <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2012,10 +2054,10 @@
         <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2026,10 +2068,10 @@
         <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2040,10 +2082,10 @@
         <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,10 +2096,10 @@
         <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,10 +2110,10 @@
         <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2082,10 +2124,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2096,10 +2138,10 @@
         <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2110,10 +2152,10 @@
         <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2124,10 +2166,10 @@
         <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>0</v>
@@ -2141,10 +2183,10 @@
         <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2155,10 +2197,10 @@
         <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2169,10 +2211,10 @@
         <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2183,10 +2225,10 @@
         <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,10 +2239,10 @@
         <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2211,10 +2253,10 @@
         <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2225,10 +2267,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2239,10 +2281,10 @@
         <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2253,10 +2295,10 @@
         <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2267,10 +2309,10 @@
         <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2281,10 +2323,10 @@
         <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2295,10 +2337,10 @@
         <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2309,10 +2351,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2323,10 +2365,10 @@
         <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,10 +2379,10 @@
         <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2351,10 +2393,10 @@
         <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2365,10 +2407,10 @@
         <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2379,10 +2421,10 @@
         <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2393,10 +2435,10 @@
         <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2407,10 +2449,10 @@
         <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2421,10 +2463,10 @@
         <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2435,10 +2477,10 @@
         <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,10 +2491,10 @@
         <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,10 +2505,10 @@
         <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2477,10 +2519,10 @@
         <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2491,10 +2533,10 @@
         <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2505,10 +2547,10 @@
         <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2519,10 +2561,10 @@
         <v>115</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2533,10 +2575,10 @@
         <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,10 +2589,10 @@
         <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,10 +2603,10 @@
         <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,10 +2617,10 @@
         <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2589,10 +2631,10 @@
         <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2603,10 +2645,10 @@
         <v>121</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2617,10 +2659,10 @@
         <v>122</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2631,10 +2673,10 @@
         <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2645,10 +2687,10 @@
         <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2659,10 +2701,10 @@
         <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2673,10 +2715,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2687,10 +2729,10 @@
         <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2701,10 +2743,10 @@
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2715,10 +2757,10 @@
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2729,10 +2771,10 @@
         <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2743,10 +2785,10 @@
         <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2757,10 +2799,10 @@
         <v>132</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,10 +2813,10 @@
         <v>133</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2785,10 +2827,10 @@
         <v>134</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2799,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2813,10 +2855,10 @@
         <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2827,10 +2869,10 @@
         <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2841,10 +2883,10 @@
         <v>144</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,10 +2897,10 @@
         <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2869,10 +2911,10 @@
         <v>141</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2883,10 +2925,10 @@
         <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,10 +2939,10 @@
         <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,10 +2953,10 @@
         <v>206</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2925,10 +2967,10 @@
         <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,10 +2981,10 @@
         <v>147</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,10 +2995,10 @@
         <v>149</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2967,10 +3009,10 @@
         <v>151</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,10 +3023,10 @@
         <v>153</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,10 +3037,10 @@
         <v>210</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,10 +3051,10 @@
         <v>155</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3023,10 +3065,10 @@
         <v>157</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,10 +3079,10 @@
         <v>184</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3051,10 +3093,10 @@
         <v>159</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3065,10 +3107,10 @@
         <v>161</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3079,10 +3121,10 @@
         <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3093,24 +3135,24 @@
         <v>165</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3121,10 +3163,10 @@
         <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3135,10 +3177,10 @@
         <v>169</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3149,10 +3191,10 @@
         <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3163,10 +3205,10 @@
         <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3177,38 +3219,38 @@
         <v>174</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>213</v>
+        <v>474</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>240</v>
+        <v>473</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3216,41 +3258,41 @@
         <v>175</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>214</v>
+        <v>472</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>215</v>
+        <v>471</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3261,10 +3303,10 @@
         <v>153</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3275,80 +3317,80 @@
         <v>178</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>216</v>
+        <v>470</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>469</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>220</v>
+        <v>467</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>222</v>
+        <v>466</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3359,10 +3401,10 @@
         <v>180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,10 +3415,10 @@
         <v>182</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3387,10 +3429,10 @@
         <v>184</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3401,10 +3443,10 @@
         <v>186</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3415,10 +3457,10 @@
         <v>188</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3429,10 +3471,10 @@
         <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3443,10 +3485,10 @@
         <v>192</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3457,10 +3499,10 @@
         <v>194</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3471,10 +3513,10 @@
         <v>196</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3485,10 +3527,10 @@
         <v>198</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3499,220 +3541,276 @@
         <v>200</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>230</v>
+        <v>463</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>462</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>461</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>238</v>
+        <v>460</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>242</v>
+        <v>459</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>460</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
